--- a/Datasets/vaping_data.xlsx
+++ b/Datasets/vaping_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjun\OneDrive\Desktop\Documents\ANU\COMP4550\vaping_effect\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164537E6-2D18-4145-97A9-083361852B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE84A94-174A-486A-9EF4-0AD269F17A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{13531817-4D8B-44E9-A183-0389F8E3539A}"/>
   </bookViews>
@@ -147,13 +147,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF860B55-E241-4B71-B7BD-10ED67118845}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,8 +564,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" s="3">
+        <v>14.2</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -587,8 +590,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" s="3">
+        <v>14.2</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -613,8 +616,8 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" s="3">
+        <v>1.7749999999999999</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
@@ -639,8 +642,8 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" s="3">
+        <v>1.7749999999999999</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -665,7 +668,7 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -691,8 +694,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" s="3">
+        <v>12.8</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
@@ -717,8 +720,8 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>12.8</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -743,8 +746,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" s="3">
+        <v>1.6</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
@@ -769,8 +772,8 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" s="3">
+        <v>1.6</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -795,7 +798,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -821,8 +824,8 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>26.5</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -847,8 +850,8 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" s="3">
+        <v>26.5</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -873,8 +876,8 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>3.31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -899,8 +902,8 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" s="3">
+        <v>3.31</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
@@ -925,7 +928,7 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -951,8 +954,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="E17" s="3">
+        <v>28.5</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
@@ -977,8 +980,8 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" s="3">
+        <v>28.5</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -1003,8 +1006,8 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="E19" s="3">
+        <v>3.57</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -1029,8 +1032,8 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>3.57</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
@@ -1055,7 +1058,7 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
